--- a/static/interests.xlsx
+++ b/static/interests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amosw\OneDrive\Documenti\Studi\Esade\Electives\Data-driven prototypes\Assignment 2\portfolio\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/459baeb59233378b/Documenti/Studi/Esade/Electives/Data-driven prototypes/Assignment 2/portfolio/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5CF967-3F62-4A42-BADA-417351265DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FC5CF967-3F62-4A42-BADA-417351265DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03735ACF-4418-481F-99E0-CDA482D23D5C}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>title</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Cloud Compute</t>
   </si>
   <si>
-    <t>Test text</t>
-  </si>
-  <si>
     <t>../static/cloud_compute.png</t>
   </si>
   <si>
@@ -57,13 +54,31 @@
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>Machine learning like scikit-learn</t>
-  </si>
-  <si>
     <t>Prototyping</t>
   </si>
   <si>
     <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>Leverage machine learning tools like scikit-learn.</t>
+  </si>
+  <si>
+    <t>Quickly create and test product prototypes.</t>
+  </si>
+  <si>
+    <t>Analyze data to drive informed decision-making.</t>
+  </si>
+  <si>
+    <t>../static/NLP.png</t>
+  </si>
+  <si>
+    <t>../static/ML.png</t>
+  </si>
+  <si>
+    <t>../static/prototype.png</t>
+  </si>
+  <si>
+    <t>../static/analytics.png</t>
   </si>
 </sst>
 </file>
@@ -396,7 +411,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -420,54 +435,54 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
